--- a/ИЗПА.2322.04.xlsx
+++ b/ИЗПА.2322.04.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Сотрудники\Котов\Образцы для макроса\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coopp\Desktop\sortdetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AA83E4-3092-42D7-A716-A6D4B3517078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8B820B-5E09-4C30-9B80-B179255D712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{916EAAD3-8801-4108-B50A-E08396F51D4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{916EAAD3-8801-4108-B50A-E08396F51D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -103,13 +94,28 @@
   </si>
   <si>
     <t>Скоба</t>
+  </si>
+  <si>
+    <t>Сборочные единицы</t>
+  </si>
+  <si>
+    <t>ИЗПА.2322.03</t>
+  </si>
+  <si>
+    <t>Ручка ВА модульного</t>
+  </si>
+  <si>
+    <t>ИЗПА.2322.02</t>
+  </si>
+  <si>
+    <t>Кнопка без фиксации красная</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,20 +504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4ADDA3-C566-4464-85CA-761554D79E0A}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -534,7 +540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -566,7 +572,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="72.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -576,7 +582,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.5">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -592,7 +598,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -602,7 +608,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -610,11 +616,11 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -624,62 +630,120 @@
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.5">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="35">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="17.5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.5">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.5">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+    <row r="16" spans="1:7" ht="17.5">
+      <c r="C16" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
